--- a/TPO_LISTENING.xlsx
+++ b/TPO_LISTENING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="24800" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -64,37 +64,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -115,25 +84,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,8 +114,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,7 +162,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,20 +179,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +197,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -228,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,30 +446,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -481,6 +457,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,21 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -534,174 +510,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1025,23 +1019,24 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12.9375" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.9375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1049,1189 +1044,1189 @@
       <c r="A2" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="16.8" spans="1:3">
       <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" ht="16.8" spans="1:3">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" ht="16.8" spans="1:3">
       <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="16.8" spans="1:3">
       <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="16.8" spans="1:3">
       <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" ht="16.8" spans="1:3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="16.8" spans="1:3">
       <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="16.8" spans="1:3">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="16.8" spans="1:3">
       <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" ht="16.8" spans="1:3">
       <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" ht="16.8" spans="1:3">
       <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="16.8" spans="1:3">
       <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="16.8" spans="1:3">
       <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="16.8" spans="1:3">
       <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" ht="16.8" spans="1:3">
       <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" ht="16.8" spans="1:3">
       <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" ht="16.8" spans="1:3">
       <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" ht="16.8" spans="1:3">
       <c r="A20" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="16.8" spans="1:3">
       <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" ht="16.8" spans="1:3">
       <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" ht="16.8" spans="1:3">
       <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" ht="16.8" spans="1:3">
       <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" ht="16.8" spans="1:3">
       <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" ht="16.8" spans="1:3">
       <c r="A26" s="2">
         <v>11</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" ht="16.8" spans="1:3">
       <c r="A27" s="2"/>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" ht="16.8" spans="1:3">
       <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" ht="16.8" spans="1:3">
       <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" ht="16.8" spans="1:3">
       <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" ht="16.8" spans="1:3">
       <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" ht="16.8" spans="1:3">
       <c r="A32" s="2">
         <v>12</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3"/>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" ht="16.8" spans="1:3">
       <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" ht="16.8" spans="1:3">
       <c r="A34" s="2"/>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3"/>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" ht="16.8" spans="1:3">
       <c r="A35" s="2"/>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3"/>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" ht="16.8" spans="1:3">
       <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3"/>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" ht="16.8" spans="1:3">
       <c r="A37" s="2"/>
-      <c r="B37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" ht="16.8" spans="1:3">
       <c r="A38" s="2">
         <v>13</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3"/>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" ht="16.8" spans="1:3">
       <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" ht="16.8" spans="1:3">
       <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="3"/>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" ht="16.8" spans="1:3">
       <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3"/>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" ht="16.8" spans="1:3">
       <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3"/>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" ht="16.8" spans="1:3">
       <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3"/>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" ht="16.8" spans="1:3">
       <c r="A44" s="2">
         <v>14</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3"/>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" ht="16.8" spans="1:3">
       <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3"/>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" ht="16.8" spans="1:3">
       <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3"/>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" ht="16.8" spans="1:3">
       <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3"/>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" ht="16.8" spans="1:3">
       <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="3"/>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" ht="16.8" spans="1:3">
       <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="3"/>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" ht="16.8" spans="1:3">
       <c r="A50" s="2">
         <v>15</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="3"/>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" ht="16.8" spans="1:3">
       <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3"/>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" ht="16.8" spans="1:3">
       <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="3"/>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" ht="16.8" spans="1:3">
       <c r="A53" s="2"/>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3"/>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" ht="16.8" spans="1:3">
       <c r="A54" s="2"/>
-      <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="3"/>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" ht="16.8" spans="1:3">
       <c r="A55" s="2"/>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="3"/>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" ht="16.8" spans="1:3">
       <c r="A56" s="2">
         <v>16</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="3"/>
+      <c r="B56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" ht="16.8" spans="1:3">
       <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3"/>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" ht="16.8" spans="1:3">
       <c r="A58" s="2"/>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="3"/>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" ht="16.8" spans="1:3">
       <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="3"/>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" ht="16.8" spans="1:3">
       <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="3"/>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" ht="16.8" spans="1:3">
       <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="3"/>
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" ht="16.8" spans="1:3">
       <c r="A62" s="2">
         <v>17</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3"/>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" ht="16.8" spans="1:3">
       <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3"/>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" ht="16.8" spans="1:3">
       <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="3"/>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" ht="16.8" spans="1:3">
       <c r="A65" s="2"/>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="3"/>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" ht="16.8" spans="1:3">
       <c r="A66" s="2"/>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="3"/>
+      <c r="B66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" ht="16.8" spans="1:3">
       <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="3"/>
+      <c r="B67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" ht="16.8" spans="1:3">
       <c r="A68" s="2">
         <v>18</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="3"/>
+      <c r="B68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" ht="16.8" spans="1:3">
       <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="3"/>
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" ht="16.8" spans="1:3">
       <c r="A70" s="2"/>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="3"/>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" ht="16.8" spans="1:3">
       <c r="A71" s="2"/>
-      <c r="B71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="3"/>
+      <c r="B71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" ht="16.8" spans="1:3">
       <c r="A72" s="2"/>
-      <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="3"/>
+      <c r="B72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" ht="16.8" spans="1:3">
       <c r="A73" s="2"/>
-      <c r="B73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="3"/>
+      <c r="B73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" ht="16.8" spans="1:3">
       <c r="A74" s="2">
         <v>19</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="3"/>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" ht="16.8" spans="1:3">
       <c r="A75" s="2"/>
-      <c r="B75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="3"/>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" ht="16.8" spans="1:3">
       <c r="A76" s="2"/>
-      <c r="B76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="3"/>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" ht="16.8" spans="1:3">
       <c r="A77" s="2"/>
-      <c r="B77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="3"/>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" ht="16.8" spans="1:3">
       <c r="A78" s="2"/>
-      <c r="B78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="3"/>
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" ht="16.8" spans="1:3">
       <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="3"/>
+      <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" ht="16.8" spans="1:3">
       <c r="A80" s="2">
         <v>20</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="3"/>
+      <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" ht="16.8" spans="1:3">
       <c r="A81" s="2"/>
-      <c r="B81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="3"/>
+      <c r="B81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" ht="16.8" spans="1:3">
       <c r="A82" s="2"/>
-      <c r="B82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="3"/>
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" ht="16.8" spans="1:3">
       <c r="A83" s="2"/>
-      <c r="B83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="3"/>
+      <c r="B83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" ht="16.8" spans="1:3">
       <c r="A84" s="2"/>
-      <c r="B84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="3"/>
+      <c r="B84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" ht="16.8" spans="1:3">
       <c r="A85" s="2"/>
-      <c r="B85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="3"/>
+      <c r="B85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" ht="16.8" spans="1:3">
       <c r="A86" s="2">
         <v>21</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="3"/>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" ht="16.8" spans="1:3">
       <c r="A87" s="2"/>
-      <c r="B87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="3"/>
+      <c r="B87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" ht="16.8" spans="1:3">
       <c r="A88" s="2"/>
-      <c r="B88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="3"/>
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" ht="16.8" spans="1:3">
       <c r="A89" s="2"/>
-      <c r="B89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="3"/>
+      <c r="B89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" ht="16.8" spans="1:3">
       <c r="A90" s="2"/>
-      <c r="B90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="3"/>
+      <c r="B90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" ht="16.8" spans="1:3">
       <c r="A91" s="2"/>
-      <c r="B91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="3"/>
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" ht="16.8" spans="1:3">
       <c r="A92" s="2">
         <v>22</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="3"/>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" ht="16.8" spans="1:3">
       <c r="A93" s="2"/>
-      <c r="B93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="3"/>
+      <c r="B93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" ht="16.8" spans="1:3">
       <c r="A94" s="2"/>
-      <c r="B94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="3"/>
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" ht="16.8" spans="1:3">
       <c r="A95" s="2"/>
-      <c r="B95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="3"/>
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" ht="16.8" spans="1:3">
       <c r="A96" s="2"/>
-      <c r="B96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="3"/>
+      <c r="B96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" ht="16.8" spans="1:3">
       <c r="A97" s="2"/>
-      <c r="B97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="3"/>
+      <c r="B97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" ht="16.8" spans="1:3">
       <c r="A98" s="2">
         <v>23</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="3"/>
+      <c r="B98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" ht="16.8" spans="1:3">
       <c r="A99" s="2"/>
-      <c r="B99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="3"/>
+      <c r="B99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" ht="16.8" spans="1:3">
       <c r="A100" s="2"/>
-      <c r="B100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="3"/>
+      <c r="B100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" ht="16.8" spans="1:3">
       <c r="A101" s="2"/>
-      <c r="B101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="3"/>
+      <c r="B101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" ht="16.8" spans="1:3">
       <c r="A102" s="2"/>
-      <c r="B102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="3"/>
+      <c r="B102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" ht="16.8" spans="1:3">
       <c r="A103" s="2"/>
-      <c r="B103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="3"/>
+      <c r="B103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" ht="16.8" spans="1:3">
       <c r="A104" s="2">
         <v>24</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="3"/>
+      <c r="B104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" ht="16.8" spans="1:3">
       <c r="A105" s="2"/>
-      <c r="B105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="3"/>
+      <c r="B105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" ht="16.8" spans="1:3">
       <c r="A106" s="2"/>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="3"/>
+      <c r="B106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" ht="16.8" spans="1:3">
       <c r="A107" s="2"/>
-      <c r="B107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="3"/>
+      <c r="B107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" ht="16.8" spans="1:3">
       <c r="A108" s="2"/>
-      <c r="B108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="3"/>
+      <c r="B108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" ht="16.8" spans="1:3">
       <c r="A109" s="2"/>
-      <c r="B109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="3"/>
+      <c r="B109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" ht="16.8" spans="1:3">
       <c r="A110" s="2">
         <v>25</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="3"/>
+      <c r="B110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" ht="16.8" spans="1:3">
       <c r="A111" s="2"/>
-      <c r="B111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="3"/>
+      <c r="B111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" ht="16.8" spans="1:3">
       <c r="A112" s="2"/>
-      <c r="B112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="3"/>
+      <c r="B112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" ht="16.8" spans="1:3">
       <c r="A113" s="2"/>
-      <c r="B113" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="3"/>
+      <c r="B113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" ht="16.8" spans="1:3">
       <c r="A114" s="2"/>
-      <c r="B114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="3"/>
+      <c r="B114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" ht="16.8" spans="1:3">
       <c r="A115" s="2"/>
-      <c r="B115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="3"/>
+      <c r="B115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" ht="16.8" spans="1:3">
       <c r="A116" s="2">
         <v>26</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="3"/>
+      <c r="B116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" ht="16.8" spans="1:3">
       <c r="A117" s="2"/>
-      <c r="B117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="3"/>
+      <c r="B117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" ht="16.8" spans="1:3">
       <c r="A118" s="2"/>
-      <c r="B118" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="3"/>
+      <c r="B118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" ht="16.8" spans="1:3">
       <c r="A119" s="2"/>
-      <c r="B119" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="3"/>
+      <c r="B119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" ht="16.8" spans="1:3">
       <c r="A120" s="2"/>
-      <c r="B120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="3"/>
+      <c r="B120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="2"/>
     </row>
     <row r="121" ht="16.8" spans="1:3">
       <c r="A121" s="2"/>
-      <c r="B121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="3"/>
+      <c r="B121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="2"/>
     </row>
     <row r="122" ht="16.8" spans="1:3">
       <c r="A122" s="2">
         <v>27</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="3"/>
+      <c r="B122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" ht="16.8" spans="1:3">
       <c r="A123" s="2"/>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="3"/>
+      <c r="B123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" ht="16.8" spans="1:3">
       <c r="A124" s="2"/>
-      <c r="B124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="3"/>
+      <c r="B124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" ht="16.8" spans="1:3">
       <c r="A125" s="2"/>
-      <c r="B125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="3"/>
+      <c r="B125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="2"/>
     </row>
     <row r="126" ht="16.8" spans="1:3">
       <c r="A126" s="2"/>
-      <c r="B126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="3"/>
+      <c r="B126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="2"/>
     </row>
     <row r="127" ht="16.8" spans="1:3">
       <c r="A127" s="2"/>
-      <c r="B127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="3"/>
+      <c r="B127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" ht="16.8" spans="1:3">
       <c r="A128" s="2">
         <v>28</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="3"/>
+      <c r="B128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" ht="16.8" spans="1:3">
       <c r="A129" s="2"/>
-      <c r="B129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" s="3"/>
+      <c r="B129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" ht="16.8" spans="1:3">
       <c r="A130" s="2"/>
-      <c r="B130" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="3"/>
+      <c r="B130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" ht="16.8" spans="1:3">
       <c r="A131" s="2"/>
-      <c r="B131" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" s="3"/>
+      <c r="B131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" ht="16.8" spans="1:3">
       <c r="A132" s="2"/>
-      <c r="B132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="3"/>
+      <c r="B132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" ht="16.8" spans="1:3">
       <c r="A133" s="2"/>
-      <c r="B133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="3"/>
+      <c r="B133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" ht="16.8" spans="1:3">
       <c r="A134" s="2">
         <v>29</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="3"/>
+      <c r="B134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" ht="16.8" spans="1:3">
       <c r="A135" s="2"/>
-      <c r="B135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="3"/>
+      <c r="B135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" ht="16.8" spans="1:3">
       <c r="A136" s="2"/>
-      <c r="B136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="3"/>
+      <c r="B136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" ht="16.8" spans="1:3">
       <c r="A137" s="2"/>
-      <c r="B137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="3"/>
+      <c r="B137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" ht="16.8" spans="1:3">
       <c r="A138" s="2"/>
-      <c r="B138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="3"/>
+      <c r="B138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" ht="16.8" spans="1:3">
       <c r="A139" s="2"/>
-      <c r="B139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="3"/>
+      <c r="B139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" ht="16.8" spans="1:3">
       <c r="A140" s="2">
         <v>30</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="3"/>
+      <c r="B140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" ht="16.8" spans="1:3">
       <c r="A141" s="2"/>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="3"/>
+      <c r="B141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" ht="16.8" spans="1:3">
       <c r="A142" s="2"/>
-      <c r="B142" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" s="3"/>
+      <c r="B142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" ht="16.8" spans="1:3">
       <c r="A143" s="2"/>
-      <c r="B143" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="3"/>
+      <c r="B143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="2"/>
     </row>
     <row r="144" ht="16.8" spans="1:3">
       <c r="A144" s="2"/>
-      <c r="B144" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="3"/>
+      <c r="B144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" ht="16.8" spans="1:3">
       <c r="A145" s="2"/>
-      <c r="B145" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="3"/>
+      <c r="B145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" ht="16.8" spans="1:3">
       <c r="A146" s="2">
         <v>31</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="3"/>
+      <c r="B146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" ht="16.8" spans="1:3">
       <c r="A147" s="2"/>
-      <c r="B147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="3"/>
+      <c r="B147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" ht="16.8" spans="1:3">
       <c r="A148" s="2"/>
-      <c r="B148" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" s="3"/>
+      <c r="B148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" ht="16.8" spans="1:3">
       <c r="A149" s="2"/>
-      <c r="B149" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="3"/>
+      <c r="B149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" ht="16.8" spans="1:3">
       <c r="A150" s="2"/>
-      <c r="B150" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="3"/>
+      <c r="B150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" ht="16.8" spans="1:3">
       <c r="A151" s="2"/>
-      <c r="B151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="3"/>
+      <c r="B151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" ht="16.8" spans="1:3">
       <c r="A152" s="2">
         <v>32</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="3"/>
+      <c r="B152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" ht="16.8" spans="1:3">
       <c r="A153" s="2"/>
-      <c r="B153" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="3"/>
+      <c r="B153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" ht="16.8" spans="1:3">
       <c r="A154" s="2"/>
-      <c r="B154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" s="3"/>
+      <c r="B154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" ht="16.8" spans="1:3">
       <c r="A155" s="2"/>
-      <c r="B155" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" s="3"/>
+      <c r="B155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" ht="16.8" spans="1:3">
       <c r="A156" s="2"/>
-      <c r="B156" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3"/>
+      <c r="B156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" ht="16.8" spans="1:3">
       <c r="A157" s="2"/>
-      <c r="B157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="3"/>
+      <c r="B157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" ht="16.8" spans="1:3">
       <c r="A158" s="2">
         <v>33</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="3"/>
+      <c r="B158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" ht="16.8" spans="1:3">
       <c r="A159" s="2"/>
-      <c r="B159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="3"/>
+      <c r="B159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" ht="16.8" spans="1:3">
       <c r="A160" s="2"/>
-      <c r="B160" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" s="3"/>
+      <c r="B160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" ht="16.8" spans="1:3">
       <c r="A161" s="2"/>
-      <c r="B161" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="3"/>
+      <c r="B161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" ht="16.8" spans="1:3">
       <c r="A162" s="2"/>
-      <c r="B162" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3"/>
+      <c r="B162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" ht="16.8" spans="1:3">
       <c r="A163" s="2"/>
-      <c r="B163" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="3"/>
+      <c r="B163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">

--- a/TPO_LISTENING.xlsx
+++ b/TPO_LISTENING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="25420" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,7 +79,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,105 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,11 +124,94 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -228,25 +228,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,13 +372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,13 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,121 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,21 +437,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -467,6 +452,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -478,9 +478,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,176 +528,150 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1088,10 +1088,10 @@
       <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="16.8" spans="1:3">
       <c r="A9" s="3"/>

--- a/TPO_LISTENING.xlsx
+++ b/TPO_LISTENING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25420" windowHeight="11400"/>
+    <workbookView windowWidth="28800" windowHeight="11860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -69,17 +69,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,16 +99,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,8 +114,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +147,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,9 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,14 +183,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,34 +207,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -228,19 +228,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,13 +282,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,25 +354,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,109 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +437,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -453,25 +477,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,36 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -534,153 +519,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1095,17 +1095,17 @@
     </row>
     <row r="9" ht="16.8" spans="1:3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="16.8" spans="1:3">
       <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="16.8" spans="1:3">
       <c r="A11" s="3"/>

--- a/TPO_LISTENING.xlsx
+++ b/TPO_LISTENING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11860"/>
+    <workbookView windowWidth="25820" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -70,8 +70,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,13 +86,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,23 +99,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -125,36 +110,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +130,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -182,8 +167,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,17 +190,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,17 +437,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,7 +450,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,35 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,123 +499,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,28 +659,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1109,17 +1109,17 @@
     </row>
     <row r="11" ht="16.8" spans="1:3">
       <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" ht="16.8" spans="1:3">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" ht="16.8" spans="1:3">
       <c r="A13" s="3"/>

--- a/TPO_LISTENING.xlsx
+++ b/TPO_LISTENING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25820" windowHeight="11320"/>
+    <workbookView windowWidth="28800" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,8 +50,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,18 +69,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,7 +92,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -107,19 +115,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,30 +145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,22 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,7 +177,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,97 +228,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,37 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,43 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,21 +495,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -502,30 +511,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -534,153 +519,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C13" sqref="A8:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1085,7 +1085,7 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" ht="16.8" spans="1:3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1094,39 +1094,39 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" ht="16.8" spans="1:3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" ht="16.8" spans="1:3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" ht="16.8" spans="1:3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" ht="16.8" spans="1:3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" ht="16.8" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="16.8" spans="1:3">
       <c r="A14" s="3">

--- a/TPO_LISTENING.xlsx
+++ b/TPO_LISTENING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11320"/>
+    <workbookView windowWidth="24800" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,18 +69,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,9 +84,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,9 +101,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,7 +132,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +147,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,28 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -192,22 +192,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,31 +234,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,145 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,8 +440,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,24 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -490,6 +472,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +517,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,148 +539,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,8 +1018,8 @@
   <sheetPr/>
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A8:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1132,17 +1132,17 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="16.8" spans="1:3">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="16.8" spans="1:3">
       <c r="A16" s="3"/>
